--- a/data/power8_testdata/testdata_and_power8_pin_cluster_mapping.xlsx
+++ b/data/power8_testdata/testdata_and_power8_pin_cluster_mapping.xlsx
@@ -15,8 +15,8 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="5" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1643,11 +1643,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133863680"/>
-        <c:axId val="145957248"/>
+        <c:axId val="46444544"/>
+        <c:axId val="46446464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133863680"/>
+        <c:axId val="46444544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="96"/>
@@ -1689,13 +1689,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="145957248"/>
+        <c:crossAx val="46446464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="12"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145957248"/>
+        <c:axId val="46446464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1735,7 +1735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133863680"/>
+        <c:crossAx val="46444544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1827,7 +1827,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2094,11 +2093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="134691456"/>
-        <c:axId val="134701440"/>
+        <c:axId val="46804992"/>
+        <c:axId val="46809472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="134691456"/>
+        <c:axId val="46804992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48"/>
@@ -2110,13 +2109,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134701440"/>
+        <c:crossAx val="46809472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="134701440"/>
+        <c:axId val="46809472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,14 +2126,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="134691456"/>
+        <c:crossAx val="46804992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2488,11 +2486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="42165760"/>
-        <c:axId val="42164224"/>
+        <c:axId val="47645824"/>
+        <c:axId val="47647360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42165760"/>
+        <c:axId val="47645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="48"/>
@@ -2505,13 +2503,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42164224"/>
+        <c:crossAx val="47647360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="12"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42164224"/>
+        <c:axId val="47647360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2522,7 +2520,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42165760"/>
+        <c:crossAx val="47645824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -2740,11 +2738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48479616"/>
-        <c:axId val="52323456"/>
+        <c:axId val="52324992"/>
+        <c:axId val="52400896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48479616"/>
+        <c:axId val="52324992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -2757,13 +2755,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52323456"/>
+        <c:crossAx val="52400896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="6"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52323456"/>
+        <c:axId val="52400896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,7 +2772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48479616"/>
+        <c:crossAx val="52324992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -3424,11 +3422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46210048"/>
-        <c:axId val="46267776"/>
+        <c:axId val="87296256"/>
+        <c:axId val="90931968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46210048"/>
+        <c:axId val="87296256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="96"/>
@@ -3441,13 +3439,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46267776"/>
+        <c:crossAx val="90931968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="24"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46267776"/>
+        <c:axId val="90931968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3458,7 +3456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46210048"/>
+        <c:crossAx val="87296256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -4108,11 +4106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="52916224"/>
-        <c:axId val="52917760"/>
+        <c:axId val="133863680"/>
+        <c:axId val="134701056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52916224"/>
+        <c:axId val="133863680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="96"/>
@@ -4125,13 +4123,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52917760"/>
+        <c:crossAx val="134701056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="24"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52917760"/>
+        <c:axId val="134701056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4140,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52916224"/>
+        <c:crossAx val="133863680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -4792,11 +4790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53136384"/>
-        <c:axId val="53262208"/>
+        <c:axId val="48918912"/>
+        <c:axId val="48920448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53136384"/>
+        <c:axId val="48918912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="96"/>
@@ -4809,13 +4807,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53262208"/>
+        <c:crossAx val="48920448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="24"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53262208"/>
+        <c:axId val="48920448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4826,7 +4824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53136384"/>
+        <c:crossAx val="48918912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -8011,7 +8009,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K3:R22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -8149,7 +8147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -8281,7 +8279,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M1:P40" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -21578,8 +21576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT135" sqref="AT135"/>
+    <sheetView tabSelected="1" topLeftCell="L171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V214" sqref="V214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21601,8 +21599,12 @@
         <v>0</v>
       </c>
       <c r="E1" t="str">
-        <f>IF(D1=B1,"","NO MATCH")</f>
-        <v/>
+        <f t="shared" ref="E1:E65" si="0">IF(D1=B1,"","NO MATCH")</f>
+        <v/>
+      </c>
+      <c r="F1">
+        <f>MOD(A1,12*2)*8+INT(A1/12/2)</f>
+        <v>0</v>
       </c>
       <c r="N1" t="s">
         <v>51</v>
@@ -21616,12 +21618,16 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D65" si="0">MOD(A2,J$5*J$4)*J$6+INT(A2/J$5/J$4)</f>
+        <f t="shared" ref="D2:D65" si="1">MOD(A2,J$5*J$4)*J$6+INT(A2/J$5/J$4)</f>
         <v>8</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E65" si="1">IF(D2=B2,"","NO MATCH")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="2">MOD(A2,12*2)*8+INT(A2/12/2)</f>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -21638,12 +21644,16 @@
         <v>16</v>
       </c>
       <c r="D3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="E3" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
         <v>16</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N3" t="s">
         <v>53</v>
@@ -21665,12 +21675,16 @@
         <v>24</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
         <v>24</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -21698,12 +21712,16 @@
         <v>32</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
         <v>32</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I5" t="s">
         <v>9</v>
@@ -21718,7 +21736,7 @@
         <v>120</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V13" si="2">V4&amp;","&amp;U5</f>
+        <f t="shared" ref="V5:V13" si="3">V4&amp;","&amp;U5</f>
         <v>104,112,120</v>
       </c>
       <c r="AA5" s="6"/>
@@ -21731,12 +21749,16 @@
         <v>40</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
         <v>40</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I6" t="s">
         <v>47</v>
@@ -21751,7 +21773,7 @@
         <v>128</v>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128</v>
       </c>
       <c r="AA6" s="6"/>
@@ -21764,12 +21786,16 @@
         <v>48</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
         <v>48</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I7" t="s">
         <v>48</v>
@@ -21785,7 +21811,7 @@
         <v>136</v>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136</v>
       </c>
       <c r="AA7" s="6"/>
@@ -21798,12 +21824,16 @@
         <v>56</v>
       </c>
       <c r="D8">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
         <v>56</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I8" t="s">
         <v>49</v>
@@ -21819,7 +21849,7 @@
         <v>144</v>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136,144</v>
       </c>
       <c r="AA8" s="6"/>
@@ -21832,12 +21862,16 @@
         <v>64</v>
       </c>
       <c r="D9">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
         <v>64</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N9" t="s">
         <v>59</v>
@@ -21846,7 +21880,7 @@
         <v>152</v>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136,144,152</v>
       </c>
       <c r="AA9" s="6"/>
@@ -21859,12 +21893,16 @@
         <v>72</v>
       </c>
       <c r="D10">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
         <v>72</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -21876,7 +21914,7 @@
         <v>160</v>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136,144,152,160</v>
       </c>
       <c r="AA10" s="6"/>
@@ -21889,12 +21927,16 @@
         <v>80</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
         <v>80</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -21912,7 +21954,7 @@
         <v>168</v>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136,144,152,160,168</v>
       </c>
       <c r="AA11" s="6"/>
@@ -21925,12 +21967,16 @@
         <v>88</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
         <v>88</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -21951,7 +21997,7 @@
         <v>176</v>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136,144,152,160,168,176</v>
       </c>
       <c r="AA12" s="6"/>
@@ -21964,12 +22010,16 @@
         <v>96</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
         <v>96</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I13" t="s">
         <v>16</v>
@@ -21990,7 +22040,7 @@
         <v>184</v>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>104,112,120,128,136,144,152,160,168,176,184</v>
       </c>
       <c r="AA13" s="6"/>
@@ -22003,12 +22053,16 @@
         <v>104</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
         <v>104</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -22035,12 +22089,16 @@
         <v>112</v>
       </c>
       <c r="D15">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
         <v>112</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N15" t="s">
         <v>65</v>
@@ -22062,12 +22120,16 @@
         <v>120</v>
       </c>
       <c r="D16">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
         <v>120</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I16" t="s">
         <v>22</v>
@@ -22095,12 +22157,16 @@
         <v>128</v>
       </c>
       <c r="D17">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
         <v>128</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I17" s="4" t="s">
         <v>25</v>
@@ -22115,7 +22181,7 @@
         <v>160</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" ref="V17:V20" si="3">V16&amp;","&amp;U17</f>
+        <f t="shared" ref="V17:V20" si="4">V16&amp;","&amp;U17</f>
         <v>144,152,160</v>
       </c>
       <c r="AA17" s="6"/>
@@ -22128,12 +22194,16 @@
         <v>136</v>
       </c>
       <c r="D18">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
         <v>136</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -22148,7 +22218,7 @@
         <v>168</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144,152,160,168</v>
       </c>
       <c r="AA18" s="6"/>
@@ -22161,12 +22231,16 @@
         <v>144</v>
       </c>
       <c r="D19">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
         <v>144</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I19" t="s">
         <v>28</v>
@@ -22181,7 +22255,7 @@
         <v>176</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144,152,160,168,176</v>
       </c>
       <c r="AA19" s="6"/>
@@ -22194,12 +22268,16 @@
         <v>152</v>
       </c>
       <c r="D20">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
         <v>152</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I20" s="4" t="s">
         <v>32</v>
@@ -22214,7 +22292,7 @@
         <v>184</v>
       </c>
       <c r="V20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>144,152,160,168,176,184</v>
       </c>
       <c r="AA20" s="6"/>
@@ -22227,12 +22305,16 @@
         <v>160</v>
       </c>
       <c r="D21">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
         <v>160</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I21" t="s">
         <v>33</v>
@@ -22253,12 +22335,16 @@
         <v>168</v>
       </c>
       <c r="D22">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
         <v>168</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="I22" t="s">
         <v>30</v>
@@ -22286,12 +22372,16 @@
         <v>176</v>
       </c>
       <c r="D23">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
         <v>176</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N23" t="s">
         <v>73</v>
@@ -22313,12 +22403,16 @@
         <v>184</v>
       </c>
       <c r="D24">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
         <v>184</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N24" t="s">
         <v>74</v>
@@ -22327,7 +22421,7 @@
         <v>17</v>
       </c>
       <c r="V24" t="str">
-        <f t="shared" ref="V24:V33" si="4">V23&amp;","&amp;U24</f>
+        <f t="shared" ref="V24:V33" si="5">V23&amp;","&amp;U24</f>
         <v>1,9,17</v>
       </c>
       <c r="AA24" s="6"/>
@@ -22341,12 +22435,16 @@
         <v>1</v>
       </c>
       <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N25" t="s">
         <v>75</v>
@@ -22355,7 +22453,7 @@
         <v>25</v>
       </c>
       <c r="V25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25</v>
       </c>
       <c r="AA25" s="6"/>
@@ -22365,16 +22463,20 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:B89" si="5">B2+1</f>
+        <f t="shared" ref="B26:B89" si="6">B2+1</f>
         <v>9</v>
       </c>
       <c r="D26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
         <v>9</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N26" t="s">
         <v>76</v>
@@ -22383,7 +22485,7 @@
         <v>33</v>
       </c>
       <c r="V26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33</v>
       </c>
       <c r="AA26" s="6"/>
@@ -22393,16 +22495,20 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D27">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
         <v>17</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N27" t="s">
         <v>77</v>
@@ -22411,7 +22517,7 @@
         <v>41</v>
       </c>
       <c r="V27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41</v>
       </c>
     </row>
@@ -22420,16 +22526,20 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
         <v>25</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N28" t="s">
         <v>78</v>
@@ -22438,7 +22548,7 @@
         <v>49</v>
       </c>
       <c r="V28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41,49</v>
       </c>
     </row>
@@ -22447,16 +22557,20 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="D29">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
         <v>33</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N29" t="s">
         <v>79</v>
@@ -22465,7 +22579,7 @@
         <v>57</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41,49,57</v>
       </c>
     </row>
@@ -22474,16 +22588,20 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="D30">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
         <v>41</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N30" t="s">
         <v>80</v>
@@ -22492,7 +22610,7 @@
         <v>65</v>
       </c>
       <c r="V30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41,49,57,65</v>
       </c>
     </row>
@@ -22501,16 +22619,20 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
       <c r="D31">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
         <v>49</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N31" t="s">
         <v>81</v>
@@ -22519,7 +22641,7 @@
         <v>73</v>
       </c>
       <c r="V31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41,49,57,65,73</v>
       </c>
     </row>
@@ -22528,16 +22650,20 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D32">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
         <v>57</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N32" t="s">
         <v>82</v>
@@ -22546,7 +22672,7 @@
         <v>81</v>
       </c>
       <c r="V32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41,49,57,65,73,81</v>
       </c>
     </row>
@@ -22555,16 +22681,20 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D33">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
         <v>65</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N33" t="s">
         <v>83</v>
@@ -22573,7 +22703,7 @@
         <v>89</v>
       </c>
       <c r="V33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1,9,17,25,33,41,49,57,65,73,81,89</v>
       </c>
       <c r="AA33" s="5" t="s">
@@ -22585,16 +22715,20 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="D34">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
         <v>73</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N34" t="s">
         <v>84</v>
@@ -22608,16 +22742,20 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="D35">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E35" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
         <v>81</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N35" t="s">
         <v>85</v>
@@ -22641,16 +22779,20 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="D36">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
         <v>89</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N36" t="s">
         <v>86</v>
@@ -22674,16 +22816,20 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>97</v>
       </c>
       <c r="D37">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
         <v>97</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N37" t="s">
         <v>87</v>
@@ -22692,7 +22838,7 @@
         <v>16</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" ref="V37:V82" si="6">V36&amp;","&amp;U37</f>
+        <f t="shared" ref="V37:V58" si="7">V36&amp;","&amp;U37</f>
         <v>0,8,16</v>
       </c>
       <c r="AA37" s="7">
@@ -22707,16 +22853,20 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="D38">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
         <v>105</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N38" t="s">
         <v>88</v>
@@ -22725,7 +22875,7 @@
         <v>24</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24</v>
       </c>
       <c r="AA38" s="7">
@@ -22740,16 +22890,20 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>113</v>
       </c>
       <c r="D39">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
         <v>113</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N39" t="s">
         <v>89</v>
@@ -22758,7 +22912,7 @@
         <v>32</v>
       </c>
       <c r="V39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32</v>
       </c>
       <c r="AA39" s="7">
@@ -22773,16 +22927,20 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="D40">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
         <v>121</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N40" t="s">
         <v>90</v>
@@ -22791,7 +22949,7 @@
         <v>40</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40</v>
       </c>
       <c r="AA40" s="7">
@@ -22806,16 +22964,20 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>129</v>
       </c>
       <c r="D41">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
         <v>129</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N41" t="s">
         <v>91</v>
@@ -22824,7 +22986,7 @@
         <v>1</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1</v>
       </c>
       <c r="AA41" s="7">
@@ -22839,16 +23001,20 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>137</v>
       </c>
       <c r="D42">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
         <v>137</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N42" t="s">
         <v>92</v>
@@ -22857,7 +23023,7 @@
         <v>9</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9</v>
       </c>
       <c r="AA42" s="7">
@@ -22872,16 +23038,20 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="D43">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
         <v>145</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N43" t="s">
         <v>93</v>
@@ -22890,7 +23060,7 @@
         <v>17</v>
       </c>
       <c r="V43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9,17</v>
       </c>
       <c r="AA43" s="7">
@@ -22905,16 +23075,20 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="D44">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
         <v>153</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N44" t="s">
         <v>94</v>
@@ -22923,7 +23097,7 @@
         <v>25</v>
       </c>
       <c r="V44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9,17,25</v>
       </c>
       <c r="AA44" s="7">
@@ -22938,16 +23112,20 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="D45">
+        <f t="shared" si="1"/>
+        <v>161</v>
+      </c>
+      <c r="E45" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
         <v>161</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N45" t="s">
         <v>95</v>
@@ -22956,7 +23134,7 @@
         <v>33</v>
       </c>
       <c r="V45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9,17,25,33</v>
       </c>
       <c r="AA45" s="7">
@@ -22971,16 +23149,20 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="D46">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
         <v>169</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N46" t="s">
         <v>96</v>
@@ -22989,7 +23171,7 @@
         <v>41</v>
       </c>
       <c r="V46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41</v>
       </c>
       <c r="AA46" s="7">
@@ -23004,16 +23186,20 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="D47">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="E47" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
         <v>177</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N47" t="s">
         <v>97</v>
@@ -23023,7 +23209,7 @@
         <v>2</v>
       </c>
       <c r="V47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2</v>
       </c>
       <c r="AA47" s="7">
@@ -23038,26 +23224,30 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="D48">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="E48" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
         <v>185</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N48" t="s">
         <v>98</v>
       </c>
       <c r="U48">
-        <f t="shared" ref="U48:U86" si="7">U42+1</f>
+        <f t="shared" ref="U48:U58" si="8">U42+1</f>
         <v>10</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10</v>
       </c>
       <c r="AA48" s="7">
@@ -23072,26 +23262,30 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E49" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
         <v>2</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N49" t="s">
         <v>99</v>
       </c>
       <c r="U49">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="V49" t="str">
         <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18</v>
       </c>
       <c r="AA49" s="7">
@@ -23106,26 +23300,30 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D50">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
         <v>10</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N50" t="s">
         <v>100</v>
       </c>
       <c r="U50">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="V50" t="str">
         <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26</v>
       </c>
       <c r="AA50" s="7">
@@ -23140,26 +23338,30 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="D51">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E51" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
         <v>18</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N51" t="s">
         <v>101</v>
       </c>
       <c r="U51">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="V51" t="str">
         <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="V51" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34</v>
       </c>
       <c r="AA51" s="7">
@@ -23174,26 +23376,30 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D52">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="E52" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
         <v>26</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N52" t="s">
         <v>102</v>
       </c>
       <c r="U52">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="V52" t="str">
         <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42</v>
       </c>
       <c r="AA52" s="7">
@@ -23208,26 +23414,30 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D53">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="E53" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
         <v>34</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N53" t="s">
         <v>103</v>
       </c>
       <c r="U53">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="V53" t="str">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="V53" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42,3</v>
       </c>
       <c r="AA53" s="7">
@@ -23242,26 +23452,30 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="D54">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="E54" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
         <v>42</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N54" t="s">
         <v>104</v>
       </c>
       <c r="U54">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="V54" t="str">
         <f t="shared" si="7"/>
-        <v>11</v>
-      </c>
-      <c r="V54" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42,3,11</v>
       </c>
       <c r="AA54" s="7">
@@ -23276,26 +23490,30 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="D55">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E55" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
         <v>50</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N55" t="s">
         <v>105</v>
       </c>
       <c r="U55">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="V55" t="str">
         <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="V55" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42,3,11,19</v>
       </c>
       <c r="AA55" s="7">
@@ -23310,26 +23528,30 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D56">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="E56" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
         <v>58</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N56" t="s">
         <v>106</v>
       </c>
       <c r="U56">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="V56" t="str">
         <f t="shared" si="7"/>
-        <v>27</v>
-      </c>
-      <c r="V56" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42,3,11,19,27</v>
       </c>
       <c r="AA56" s="7">
@@ -23344,26 +23566,30 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D57">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="E57" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
         <v>66</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N57" t="s">
         <v>107</v>
       </c>
       <c r="U57">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="V57" t="str">
         <f t="shared" si="7"/>
-        <v>35</v>
-      </c>
-      <c r="V57" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42,3,11,19,27,35</v>
       </c>
       <c r="AA57" s="7">
@@ -23378,26 +23604,30 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="D58">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E58" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
         <v>74</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N58" t="s">
         <v>108</v>
       </c>
       <c r="U58">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="V58" t="str">
         <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-      <c r="V58" t="str">
-        <f t="shared" si="6"/>
         <v>0,8,16,24,32,40,1,9,17,25,33,41,2,10,18,26,34,42,3,11,19,27,35,43</v>
       </c>
       <c r="AA58" s="7">
@@ -23412,16 +23642,20 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>82</v>
       </c>
       <c r="D59">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E59" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
         <v>82</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N59" t="s">
         <v>109</v>
@@ -23432,16 +23666,20 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D60">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E60" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
         <v>90</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N60" t="s">
         <v>110</v>
@@ -23452,16 +23690,20 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="D61">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E61" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
         <v>98</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N61" t="s">
         <v>111</v>
@@ -23472,16 +23714,20 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106</v>
       </c>
       <c r="D62">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E62" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
         <v>106</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N62" t="s">
         <v>112</v>
@@ -23492,16 +23738,20 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="D63">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="E63" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
         <v>114</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N63" t="s">
         <v>113</v>
@@ -23515,16 +23765,20 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>122</v>
       </c>
       <c r="D64">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="E64" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
         <v>122</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N64" t="s">
         <v>114</v>
@@ -23538,16 +23792,20 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="D65">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="E65" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
         <v>130</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
       <c r="N65" t="s">
         <v>115</v>
@@ -23570,16 +23828,20 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>138</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D129" si="8">MOD(A66,J$5*J$4)*J$6+INT(A66/J$5/J$4)</f>
+        <f t="shared" ref="D66:D129" si="9">MOD(A66,J$5*J$4)*J$6+INT(A66/J$5/J$4)</f>
         <v>138</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E129" si="9">IF(D66=B66,"","NO MATCH")</f>
-        <v/>
+        <f t="shared" ref="E66:E129" si="10">IF(D66=B66,"","NO MATCH")</f>
+        <v/>
+      </c>
+      <c r="F66">
+        <f t="shared" ref="F66:F129" si="11">MOD(A66,12*2)*8+INT(A66/12/2)</f>
+        <v>138</v>
       </c>
       <c r="N66" t="s">
         <v>116</v>
@@ -23603,16 +23865,20 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>146</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F67">
+        <f t="shared" si="11"/>
+        <v>146</v>
       </c>
       <c r="N67" t="s">
         <v>117</v>
@@ -23621,7 +23887,7 @@
         <v>16</v>
       </c>
       <c r="V67" t="str">
-        <f t="shared" ref="V67:V88" si="10">V66&amp;","&amp;U67</f>
+        <f t="shared" ref="V67:V88" si="12">V66&amp;","&amp;U67</f>
         <v>0,8,16</v>
       </c>
       <c r="AA67">
@@ -23636,16 +23902,20 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="D68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>154</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F68">
+        <f t="shared" si="11"/>
+        <v>154</v>
       </c>
       <c r="N68" t="s">
         <v>118</v>
@@ -23654,7 +23924,7 @@
         <v>24</v>
       </c>
       <c r="V68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24</v>
       </c>
       <c r="AA68">
@@ -23669,16 +23939,20 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="D69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>162</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F69">
+        <f t="shared" si="11"/>
+        <v>162</v>
       </c>
       <c r="N69" t="s">
         <v>119</v>
@@ -23687,7 +23961,7 @@
         <v>32</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32</v>
       </c>
       <c r="AA69">
@@ -23702,16 +23976,20 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="D70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>170</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F70">
+        <f t="shared" si="11"/>
+        <v>170</v>
       </c>
       <c r="N70" t="s">
         <v>120</v>
@@ -23720,7 +23998,7 @@
         <v>40</v>
       </c>
       <c r="V70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40</v>
       </c>
       <c r="AA70">
@@ -23735,16 +24013,20 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="D71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>178</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>178</v>
       </c>
       <c r="N71" t="s">
         <v>121</v>
@@ -23753,7 +24035,7 @@
         <v>48</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48</v>
       </c>
       <c r="AA71">
@@ -23768,16 +24050,20 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="D72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>186</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>186</v>
       </c>
       <c r="N72" t="s">
         <v>122</v>
@@ -23786,7 +24072,7 @@
         <v>56</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56</v>
       </c>
       <c r="AA72">
@@ -23801,16 +24087,20 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="N73" t="s">
         <v>123</v>
@@ -23819,7 +24109,7 @@
         <v>64</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64</v>
       </c>
       <c r="AA73">
@@ -23834,16 +24124,20 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="N74" t="s">
         <v>124</v>
@@ -23852,7 +24146,7 @@
         <v>72</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72</v>
       </c>
       <c r="AA74">
@@ -23867,16 +24161,20 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="D75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="N75" t="s">
         <v>125</v>
@@ -23885,7 +24183,7 @@
         <v>80</v>
       </c>
       <c r="V75" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80</v>
       </c>
       <c r="AA75">
@@ -23900,16 +24198,20 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>27</v>
       </c>
       <c r="N76" t="s">
         <v>126</v>
@@ -23918,7 +24220,7 @@
         <v>88</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88</v>
       </c>
       <c r="AA76">
@@ -23933,16 +24235,20 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="D77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="N77" t="s">
         <v>127</v>
@@ -23952,7 +24258,7 @@
         <v>1</v>
       </c>
       <c r="V77" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1</v>
       </c>
       <c r="AA77">
@@ -23967,26 +24273,30 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="D78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>43</v>
       </c>
       <c r="N78" t="s">
         <v>128</v>
       </c>
       <c r="U78">
-        <f t="shared" ref="U78:U122" si="11">U66+1</f>
+        <f t="shared" ref="U78:U112" si="13">U66+1</f>
         <v>9</v>
       </c>
       <c r="V78" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9</v>
       </c>
       <c r="AA78">
@@ -24001,26 +24311,30 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="D79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>51</v>
       </c>
       <c r="N79" t="s">
         <v>129</v>
       </c>
       <c r="U79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="V79" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17</v>
       </c>
       <c r="AA79">
@@ -24035,26 +24349,30 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>59</v>
       </c>
       <c r="N80" t="s">
         <v>130</v>
       </c>
       <c r="U80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="V80" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25</v>
       </c>
       <c r="AA80">
@@ -24069,26 +24387,30 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>67</v>
       </c>
       <c r="N81" t="s">
         <v>131</v>
       </c>
       <c r="U81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="V81" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33</v>
       </c>
       <c r="AA81">
@@ -24103,26 +24425,30 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="D82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>75</v>
       </c>
       <c r="N82" t="s">
         <v>132</v>
       </c>
       <c r="U82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="V82" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41</v>
       </c>
       <c r="AA82">
@@ -24137,26 +24463,30 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="D83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>83</v>
       </c>
       <c r="N83" t="s">
         <v>133</v>
       </c>
       <c r="U83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="V83" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49</v>
       </c>
       <c r="AA83">
@@ -24171,26 +24501,30 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="D84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F84">
+        <f t="shared" si="11"/>
+        <v>91</v>
       </c>
       <c r="N84" t="s">
         <v>134</v>
       </c>
       <c r="U84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>57</v>
       </c>
       <c r="V84" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57</v>
       </c>
       <c r="AA84">
@@ -24205,26 +24539,30 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="D85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F85">
+        <f t="shared" si="11"/>
+        <v>99</v>
       </c>
       <c r="N85" t="s">
         <v>135</v>
       </c>
       <c r="U85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="V85" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65</v>
       </c>
       <c r="AA85">
@@ -24239,26 +24577,30 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>107</v>
       </c>
       <c r="D86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>107</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>107</v>
       </c>
       <c r="N86" t="s">
         <v>136</v>
       </c>
       <c r="U86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>73</v>
       </c>
       <c r="V86" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73</v>
       </c>
       <c r="AA86">
@@ -24273,26 +24615,30 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="D87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>115</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F87">
+        <f t="shared" si="11"/>
+        <v>115</v>
       </c>
       <c r="N87" t="s">
         <v>137</v>
       </c>
       <c r="U87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>81</v>
       </c>
       <c r="V87" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81</v>
       </c>
       <c r="AA87">
@@ -24307,26 +24653,30 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="D88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F88">
+        <f t="shared" si="11"/>
+        <v>123</v>
       </c>
       <c r="N88" t="s">
         <v>138</v>
       </c>
       <c r="U88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>89</v>
       </c>
       <c r="V88" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89</v>
       </c>
       <c r="AA88">
@@ -24341,26 +24691,30 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="D89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>131</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F89">
+        <f t="shared" si="11"/>
+        <v>131</v>
       </c>
       <c r="N89" t="s">
         <v>139</v>
       </c>
       <c r="U89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="V89" t="str">
-        <f t="shared" ref="V89:V122" si="12">V88&amp;","&amp;U89</f>
+        <f t="shared" ref="V89:V112" si="14">V88&amp;","&amp;U89</f>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2</v>
       </c>
       <c r="AA89">
@@ -24375,26 +24729,30 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <f t="shared" ref="B90:B153" si="13">B66+1</f>
+        <f t="shared" ref="B90:B153" si="15">B66+1</f>
         <v>139</v>
       </c>
       <c r="D90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>139</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>139</v>
       </c>
       <c r="N90" t="s">
         <v>140</v>
       </c>
       <c r="U90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="V90" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10</v>
       </c>
       <c r="AA90">
@@ -24409,26 +24767,30 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>147</v>
       </c>
       <c r="D91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F91">
+        <f t="shared" si="11"/>
+        <v>147</v>
       </c>
       <c r="N91" t="s">
         <v>141</v>
       </c>
       <c r="U91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="V91" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18</v>
       </c>
       <c r="AA91">
@@ -24443,26 +24805,30 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>155</v>
       </c>
       <c r="D92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>155</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F92">
+        <f t="shared" si="11"/>
+        <v>155</v>
       </c>
       <c r="N92" t="s">
         <v>142</v>
       </c>
       <c r="U92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="V92" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26</v>
       </c>
       <c r="AA92">
@@ -24477,26 +24843,30 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>163</v>
       </c>
       <c r="D93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>163</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F93">
+        <f t="shared" si="11"/>
+        <v>163</v>
       </c>
       <c r="N93" t="s">
         <v>143</v>
       </c>
       <c r="U93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="V93" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34</v>
       </c>
       <c r="AA93">
@@ -24511,26 +24881,30 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>171</v>
       </c>
       <c r="D94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>171</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F94">
+        <f t="shared" si="11"/>
+        <v>171</v>
       </c>
       <c r="N94" t="s">
         <v>144</v>
       </c>
       <c r="U94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="V94" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42</v>
       </c>
       <c r="AA94">
@@ -24545,26 +24919,30 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>179</v>
       </c>
       <c r="D95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>179</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F95">
+        <f t="shared" si="11"/>
+        <v>179</v>
       </c>
       <c r="N95" t="s">
         <v>145</v>
       </c>
       <c r="U95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="V95" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50</v>
       </c>
       <c r="AA95">
@@ -24579,26 +24957,30 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>187</v>
       </c>
       <c r="D96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>187</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F96">
+        <f t="shared" si="11"/>
+        <v>187</v>
       </c>
       <c r="N96" t="s">
         <v>146</v>
       </c>
       <c r="U96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>58</v>
       </c>
       <c r="V96" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58</v>
       </c>
       <c r="AA96">
@@ -24613,26 +24995,30 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="D97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F97">
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="N97" t="s">
         <v>147</v>
       </c>
       <c r="U97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>66</v>
       </c>
       <c r="V97" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66</v>
       </c>
       <c r="AA97">
@@ -24647,26 +25033,30 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="D98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F98">
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
       <c r="N98" t="s">
         <v>148</v>
       </c>
       <c r="U98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>74</v>
       </c>
       <c r="V98" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74</v>
       </c>
       <c r="AA98">
@@ -24681,26 +25071,30 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="D99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F99">
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
       <c r="N99" t="s">
         <v>149</v>
       </c>
       <c r="U99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>82</v>
       </c>
       <c r="V99" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82</v>
       </c>
       <c r="AA99">
@@ -24715,26 +25109,30 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
       <c r="D100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F100">
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="N100" t="s">
         <v>150</v>
       </c>
       <c r="U100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="V100" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90</v>
       </c>
       <c r="AA100">
@@ -24749,26 +25147,30 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
       <c r="D101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F101">
+        <f t="shared" si="11"/>
+        <v>36</v>
       </c>
       <c r="N101" t="s">
         <v>151</v>
       </c>
       <c r="U101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="V101" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3</v>
       </c>
       <c r="AA101">
@@ -24783,26 +25185,30 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
       <c r="D102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F102">
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="N102" t="s">
         <v>152</v>
       </c>
       <c r="U102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="V102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11</v>
       </c>
       <c r="AA102">
@@ -24817,26 +25223,30 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
       <c r="D103">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F103">
+        <f t="shared" si="11"/>
+        <v>52</v>
       </c>
       <c r="N103" t="s">
         <v>153</v>
       </c>
       <c r="U103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="V103" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19</v>
       </c>
       <c r="AA103">
@@ -24851,26 +25261,30 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
       <c r="D104">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F104">
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="N104" t="s">
         <v>154</v>
       </c>
       <c r="U104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="V104" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27</v>
       </c>
       <c r="AA104">
@@ -24885,26 +25299,30 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="D105">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F105">
+        <f t="shared" si="11"/>
+        <v>68</v>
       </c>
       <c r="N105" t="s">
         <v>155</v>
       </c>
       <c r="U105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="V105" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35</v>
       </c>
       <c r="AA105">
@@ -24919,26 +25337,30 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>76</v>
       </c>
       <c r="D106">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F106">
+        <f t="shared" si="11"/>
+        <v>76</v>
       </c>
       <c r="N106" t="s">
         <v>156</v>
       </c>
       <c r="U106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="V106" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43</v>
       </c>
       <c r="AA106">
@@ -24953,26 +25375,30 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>84</v>
       </c>
       <c r="D107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F107">
+        <f t="shared" si="11"/>
+        <v>84</v>
       </c>
       <c r="N107" t="s">
         <v>157</v>
       </c>
       <c r="U107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51</v>
       </c>
       <c r="V107" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43,51</v>
       </c>
       <c r="AA107">
@@ -24987,26 +25413,30 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="D108">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F108">
+        <f t="shared" si="11"/>
+        <v>92</v>
       </c>
       <c r="N108" t="s">
         <v>158</v>
       </c>
       <c r="U108">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59</v>
       </c>
       <c r="V108" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43,51,59</v>
       </c>
       <c r="AA108">
@@ -25021,26 +25451,30 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="D109">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F109">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="N109" t="s">
         <v>159</v>
       </c>
       <c r="U109">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>67</v>
       </c>
       <c r="V109" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43,51,59,67</v>
       </c>
       <c r="AA109">
@@ -25055,26 +25489,30 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="D110">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F110">
+        <f t="shared" si="11"/>
+        <v>108</v>
       </c>
       <c r="N110" t="s">
         <v>160</v>
       </c>
       <c r="U110">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="V110" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43,51,59,67,75</v>
       </c>
       <c r="AA110">
@@ -25089,26 +25527,30 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="D111">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F111">
+        <f t="shared" si="11"/>
+        <v>116</v>
       </c>
       <c r="N111" t="s">
         <v>161</v>
       </c>
       <c r="U111">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>83</v>
       </c>
       <c r="V111" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43,51,59,67,75,83</v>
       </c>
       <c r="AA111">
@@ -25123,26 +25565,30 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="D112">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F112">
+        <f t="shared" si="11"/>
+        <v>124</v>
       </c>
       <c r="N112" t="s">
         <v>162</v>
       </c>
       <c r="U112">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>91</v>
       </c>
       <c r="V112" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,1,9,17,25,33,41,49,57,65,73,81,89,2,10,18,26,34,42,50,58,66,74,82,90,3,11,19,27,35,43,51,59,67,75,83,91</v>
       </c>
       <c r="AA112">
@@ -25157,16 +25603,20 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>132</v>
       </c>
       <c r="D113">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>132</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F113">
+        <f t="shared" si="11"/>
+        <v>132</v>
       </c>
       <c r="N113" t="s">
         <v>163</v>
@@ -25177,16 +25627,20 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>140</v>
       </c>
       <c r="D114">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>140</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F114">
+        <f t="shared" si="11"/>
+        <v>140</v>
       </c>
       <c r="N114" t="s">
         <v>164</v>
@@ -25197,16 +25651,20 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>148</v>
       </c>
       <c r="D115">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>148</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F115">
+        <f t="shared" si="11"/>
+        <v>148</v>
       </c>
       <c r="N115" t="s">
         <v>165</v>
@@ -25217,16 +25675,20 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>156</v>
       </c>
       <c r="D116">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F116">
+        <f t="shared" si="11"/>
+        <v>156</v>
       </c>
       <c r="N116" t="s">
         <v>166</v>
@@ -25237,16 +25699,20 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>164</v>
       </c>
       <c r="D117">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>164</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F117">
+        <f t="shared" si="11"/>
+        <v>164</v>
       </c>
       <c r="N117" t="s">
         <v>167</v>
@@ -25260,16 +25726,20 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>172</v>
       </c>
       <c r="D118">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>172</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F118">
+        <f t="shared" si="11"/>
+        <v>172</v>
       </c>
       <c r="N118" t="s">
         <v>168</v>
@@ -25283,16 +25753,20 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>180</v>
       </c>
       <c r="D119">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F119">
+        <f t="shared" si="11"/>
+        <v>180</v>
       </c>
       <c r="N119" t="s">
         <v>169</v>
@@ -25328,16 +25802,20 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>188</v>
       </c>
       <c r="D120">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>188</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F120">
+        <f t="shared" si="11"/>
+        <v>188</v>
       </c>
       <c r="N120" t="s">
         <v>170</v>
@@ -25373,16 +25851,20 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="D121">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F121">
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="N121" t="s">
         <v>171</v>
@@ -25391,7 +25873,7 @@
         <v>16</v>
       </c>
       <c r="V121" t="str">
-        <f t="shared" ref="V121:V184" si="14">V120&amp;","&amp;U121</f>
+        <f t="shared" ref="V121:V184" si="16">V120&amp;","&amp;U121</f>
         <v>0,8,16</v>
       </c>
       <c r="AA121">
@@ -25418,16 +25900,20 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="D122">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F122">
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
       <c r="N122" t="s">
         <v>172</v>
@@ -25436,7 +25922,7 @@
         <v>24</v>
       </c>
       <c r="V122" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24</v>
       </c>
       <c r="AA122">
@@ -25463,16 +25949,20 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="D123">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F123">
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
       <c r="N123" t="s">
         <v>173</v>
@@ -25481,7 +25971,7 @@
         <v>32</v>
       </c>
       <c r="V123" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32</v>
       </c>
       <c r="AA123">
@@ -25508,16 +25998,20 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="D124">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F124">
+        <f t="shared" si="11"/>
+        <v>29</v>
       </c>
       <c r="N124" t="s">
         <v>174</v>
@@ -25526,7 +26020,7 @@
         <v>40</v>
       </c>
       <c r="V124" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40</v>
       </c>
       <c r="AA124">
@@ -25553,16 +26047,20 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
       <c r="D125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F125">
+        <f t="shared" si="11"/>
+        <v>37</v>
       </c>
       <c r="N125" t="s">
         <v>175</v>
@@ -25571,7 +26069,7 @@
         <v>48</v>
       </c>
       <c r="V125" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48</v>
       </c>
       <c r="AA125">
@@ -25598,16 +26096,20 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
       <c r="D126">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F126">
+        <f t="shared" si="11"/>
+        <v>45</v>
       </c>
       <c r="N126" t="s">
         <v>176</v>
@@ -25616,7 +26118,7 @@
         <v>56</v>
       </c>
       <c r="V126" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56</v>
       </c>
       <c r="AA126">
@@ -25643,16 +26145,20 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
       <c r="D127">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F127">
+        <f t="shared" si="11"/>
+        <v>53</v>
       </c>
       <c r="N127" t="s">
         <v>177</v>
@@ -25661,7 +26167,7 @@
         <v>64</v>
       </c>
       <c r="V127" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64</v>
       </c>
       <c r="AA127">
@@ -25688,16 +26194,20 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
       <c r="D128">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F128">
+        <f t="shared" si="11"/>
+        <v>61</v>
       </c>
       <c r="N128" t="s">
         <v>178</v>
@@ -25706,7 +26216,7 @@
         <v>72</v>
       </c>
       <c r="V128" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72</v>
       </c>
       <c r="AA128">
@@ -25733,16 +26243,20 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>69</v>
       </c>
       <c r="D129">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="F129">
+        <f t="shared" si="11"/>
+        <v>69</v>
       </c>
       <c r="N129" t="s">
         <v>179</v>
@@ -25751,7 +26265,7 @@
         <v>80</v>
       </c>
       <c r="V129" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80</v>
       </c>
       <c r="AA129">
@@ -25778,16 +26292,20 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>77</v>
       </c>
       <c r="D130">
-        <f t="shared" ref="D130:D192" si="15">MOD(A130,J$5*J$4)*J$6+INT(A130/J$5/J$4)</f>
+        <f t="shared" ref="D130:D192" si="17">MOD(A130,J$5*J$4)*J$6+INT(A130/J$5/J$4)</f>
         <v>77</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E192" si="16">IF(D130=B130,"","NO MATCH")</f>
-        <v/>
+        <f t="shared" ref="E130:E192" si="18">IF(D130=B130,"","NO MATCH")</f>
+        <v/>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:F192" si="19">MOD(A130,12*2)*8+INT(A130/12/2)</f>
+        <v>77</v>
       </c>
       <c r="N130" t="s">
         <v>180</v>
@@ -25796,7 +26314,7 @@
         <v>88</v>
       </c>
       <c r="V130" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88</v>
       </c>
       <c r="AA130">
@@ -25823,16 +26341,20 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <f t="shared" si="13"/>
-        <v>85</v>
-      </c>
-      <c r="D131">
         <f t="shared" si="15"/>
         <v>85</v>
       </c>
+      <c r="D131">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
       <c r="E131" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F131">
+        <f t="shared" si="19"/>
+        <v>85</v>
       </c>
       <c r="N131" t="s">
         <v>181</v>
@@ -25841,7 +26363,7 @@
         <v>96</v>
       </c>
       <c r="V131" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96</v>
       </c>
       <c r="AA131">
@@ -25868,16 +26390,20 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <f t="shared" si="13"/>
-        <v>93</v>
-      </c>
-      <c r="D132">
         <f t="shared" si="15"/>
         <v>93</v>
       </c>
+      <c r="D132">
+        <f t="shared" si="17"/>
+        <v>93</v>
+      </c>
       <c r="E132" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F132">
+        <f t="shared" si="19"/>
+        <v>93</v>
       </c>
       <c r="N132" t="s">
         <v>182</v>
@@ -25886,7 +26412,7 @@
         <v>104</v>
       </c>
       <c r="V132" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104</v>
       </c>
       <c r="AA132">
@@ -25913,16 +26439,20 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <f t="shared" si="13"/>
-        <v>101</v>
-      </c>
-      <c r="D133">
         <f t="shared" si="15"/>
         <v>101</v>
       </c>
+      <c r="D133">
+        <f t="shared" si="17"/>
+        <v>101</v>
+      </c>
       <c r="E133" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F133">
+        <f t="shared" si="19"/>
+        <v>101</v>
       </c>
       <c r="N133" t="s">
         <v>183</v>
@@ -25931,7 +26461,7 @@
         <v>112</v>
       </c>
       <c r="V133" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112</v>
       </c>
       <c r="AA133">
@@ -25958,16 +26488,20 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <f t="shared" si="13"/>
-        <v>109</v>
-      </c>
-      <c r="D134">
         <f t="shared" si="15"/>
         <v>109</v>
       </c>
+      <c r="D134">
+        <f t="shared" si="17"/>
+        <v>109</v>
+      </c>
       <c r="E134" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F134">
+        <f t="shared" si="19"/>
+        <v>109</v>
       </c>
       <c r="N134" t="s">
         <v>184</v>
@@ -25976,7 +26510,7 @@
         <v>120</v>
       </c>
       <c r="V134" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120</v>
       </c>
       <c r="AA134">
@@ -26003,16 +26537,20 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <f t="shared" si="13"/>
-        <v>117</v>
-      </c>
-      <c r="D135">
         <f t="shared" si="15"/>
         <v>117</v>
       </c>
+      <c r="D135">
+        <f t="shared" si="17"/>
+        <v>117</v>
+      </c>
       <c r="E135" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F135">
+        <f t="shared" si="19"/>
+        <v>117</v>
       </c>
       <c r="N135" t="s">
         <v>185</v>
@@ -26021,7 +26559,7 @@
         <v>128</v>
       </c>
       <c r="V135" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128</v>
       </c>
       <c r="AA135">
@@ -26054,16 +26592,20 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <f t="shared" si="13"/>
-        <v>125</v>
-      </c>
-      <c r="D136">
         <f t="shared" si="15"/>
         <v>125</v>
       </c>
+      <c r="D136">
+        <f t="shared" si="17"/>
+        <v>125</v>
+      </c>
       <c r="E136" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F136">
+        <f t="shared" si="19"/>
+        <v>125</v>
       </c>
       <c r="N136" t="s">
         <v>186</v>
@@ -26072,7 +26614,7 @@
         <v>136</v>
       </c>
       <c r="V136" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136</v>
       </c>
       <c r="AA136">
@@ -26102,16 +26644,20 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <f t="shared" si="13"/>
-        <v>133</v>
-      </c>
-      <c r="D137">
         <f t="shared" si="15"/>
         <v>133</v>
       </c>
+      <c r="D137">
+        <f t="shared" si="17"/>
+        <v>133</v>
+      </c>
       <c r="E137" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F137">
+        <f t="shared" si="19"/>
+        <v>133</v>
       </c>
       <c r="N137" t="s">
         <v>187</v>
@@ -26120,7 +26666,7 @@
         <v>144</v>
       </c>
       <c r="V137" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144</v>
       </c>
       <c r="AA137">
@@ -26147,16 +26693,20 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <f t="shared" si="13"/>
-        <v>141</v>
-      </c>
-      <c r="D138">
         <f t="shared" si="15"/>
         <v>141</v>
       </c>
+      <c r="D138">
+        <f t="shared" si="17"/>
+        <v>141</v>
+      </c>
       <c r="E138" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F138">
+        <f t="shared" si="19"/>
+        <v>141</v>
       </c>
       <c r="N138" t="s">
         <v>188</v>
@@ -26165,7 +26715,7 @@
         <v>152</v>
       </c>
       <c r="V138" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152</v>
       </c>
       <c r="AA138">
@@ -26192,16 +26742,20 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <f t="shared" si="13"/>
-        <v>149</v>
-      </c>
-      <c r="D139">
         <f t="shared" si="15"/>
         <v>149</v>
       </c>
+      <c r="D139">
+        <f t="shared" si="17"/>
+        <v>149</v>
+      </c>
       <c r="E139" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F139">
+        <f t="shared" si="19"/>
+        <v>149</v>
       </c>
       <c r="N139" t="s">
         <v>189</v>
@@ -26210,7 +26764,7 @@
         <v>160</v>
       </c>
       <c r="V139" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160</v>
       </c>
       <c r="AA139">
@@ -26237,16 +26791,20 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <f t="shared" si="13"/>
-        <v>157</v>
-      </c>
-      <c r="D140">
         <f t="shared" si="15"/>
         <v>157</v>
       </c>
+      <c r="D140">
+        <f t="shared" si="17"/>
+        <v>157</v>
+      </c>
       <c r="E140" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F140">
+        <f t="shared" si="19"/>
+        <v>157</v>
       </c>
       <c r="N140" t="s">
         <v>190</v>
@@ -26255,7 +26813,7 @@
         <v>168</v>
       </c>
       <c r="V140" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168</v>
       </c>
       <c r="AA140">
@@ -26282,16 +26840,20 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <f t="shared" si="13"/>
-        <v>165</v>
-      </c>
-      <c r="D141">
         <f t="shared" si="15"/>
         <v>165</v>
       </c>
+      <c r="D141">
+        <f t="shared" si="17"/>
+        <v>165</v>
+      </c>
       <c r="E141" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F141">
+        <f t="shared" si="19"/>
+        <v>165</v>
       </c>
       <c r="N141" t="s">
         <v>191</v>
@@ -26300,7 +26862,7 @@
         <v>176</v>
       </c>
       <c r="V141" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176</v>
       </c>
       <c r="AA141">
@@ -26327,16 +26889,20 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <f t="shared" si="13"/>
-        <v>173</v>
-      </c>
-      <c r="D142">
         <f t="shared" si="15"/>
         <v>173</v>
       </c>
+      <c r="D142">
+        <f t="shared" si="17"/>
+        <v>173</v>
+      </c>
       <c r="E142" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F142">
+        <f t="shared" si="19"/>
+        <v>173</v>
       </c>
       <c r="N142" t="s">
         <v>192</v>
@@ -26345,7 +26911,7 @@
         <v>184</v>
       </c>
       <c r="V142" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184</v>
       </c>
       <c r="AA142">
@@ -26372,16 +26938,20 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <f t="shared" si="13"/>
-        <v>181</v>
-      </c>
-      <c r="D143">
         <f t="shared" si="15"/>
         <v>181</v>
       </c>
+      <c r="D143">
+        <f t="shared" si="17"/>
+        <v>181</v>
+      </c>
       <c r="E143" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F143">
+        <f t="shared" si="19"/>
+        <v>181</v>
       </c>
       <c r="N143" t="s">
         <v>193</v>
@@ -26391,7 +26961,7 @@
         <v>1</v>
       </c>
       <c r="V143" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1</v>
       </c>
       <c r="AA143">
@@ -26418,26 +26988,30 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <f t="shared" si="13"/>
-        <v>189</v>
-      </c>
-      <c r="D144">
         <f t="shared" si="15"/>
         <v>189</v>
       </c>
+      <c r="D144">
+        <f t="shared" si="17"/>
+        <v>189</v>
+      </c>
       <c r="E144" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F144">
+        <f t="shared" si="19"/>
+        <v>189</v>
       </c>
       <c r="N144" t="s">
         <v>194</v>
       </c>
       <c r="U144">
-        <f t="shared" ref="U144:U207" si="17">U120+1</f>
+        <f t="shared" ref="U144:U207" si="20">U120+1</f>
         <v>9</v>
       </c>
       <c r="V144" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9</v>
       </c>
       <c r="AA144">
@@ -26464,26 +27038,30 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="D145">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
+      <c r="D145">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="E145" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F145">
+        <f t="shared" si="19"/>
+        <v>6</v>
       </c>
       <c r="N145" t="s">
         <v>195</v>
       </c>
       <c r="U145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="V145" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17</v>
       </c>
       <c r="AA145">
@@ -26510,26 +27088,30 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="D146">
         <f t="shared" si="15"/>
         <v>14</v>
       </c>
+      <c r="D146">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
       <c r="E146" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F146">
+        <f t="shared" si="19"/>
+        <v>14</v>
       </c>
       <c r="N146" t="s">
         <v>196</v>
       </c>
       <c r="U146">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="V146" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25</v>
       </c>
       <c r="AA146">
@@ -26556,26 +27138,30 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <f t="shared" si="13"/>
-        <v>22</v>
-      </c>
-      <c r="D147">
         <f t="shared" si="15"/>
         <v>22</v>
       </c>
+      <c r="D147">
+        <f t="shared" si="17"/>
+        <v>22</v>
+      </c>
       <c r="E147" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F147">
+        <f t="shared" si="19"/>
+        <v>22</v>
       </c>
       <c r="N147" t="s">
         <v>197</v>
       </c>
       <c r="U147">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="V147" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33</v>
       </c>
       <c r="AA147">
@@ -26602,26 +27188,30 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <f t="shared" si="13"/>
-        <v>30</v>
-      </c>
-      <c r="D148">
         <f t="shared" si="15"/>
         <v>30</v>
       </c>
+      <c r="D148">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
       <c r="E148" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F148">
+        <f t="shared" si="19"/>
+        <v>30</v>
       </c>
       <c r="N148" t="s">
         <v>198</v>
       </c>
       <c r="U148">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
       <c r="V148" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41</v>
       </c>
       <c r="AA148">
@@ -26648,26 +27238,30 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <f t="shared" si="13"/>
-        <v>38</v>
-      </c>
-      <c r="D149">
         <f t="shared" si="15"/>
         <v>38</v>
       </c>
+      <c r="D149">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
       <c r="E149" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F149">
+        <f t="shared" si="19"/>
+        <v>38</v>
       </c>
       <c r="N149" t="s">
         <v>199</v>
       </c>
       <c r="U149">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="V149" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49</v>
       </c>
       <c r="AA149">
@@ -26694,26 +27288,30 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <f t="shared" si="13"/>
-        <v>46</v>
-      </c>
-      <c r="D150">
         <f t="shared" si="15"/>
         <v>46</v>
       </c>
+      <c r="D150">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
       <c r="E150" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F150">
+        <f t="shared" si="19"/>
+        <v>46</v>
       </c>
       <c r="N150" t="s">
         <v>200</v>
       </c>
       <c r="U150">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>57</v>
       </c>
       <c r="V150" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57</v>
       </c>
       <c r="AA150">
@@ -26740,26 +27338,30 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="D151">
         <f t="shared" si="15"/>
         <v>54</v>
       </c>
+      <c r="D151">
+        <f t="shared" si="17"/>
+        <v>54</v>
+      </c>
       <c r="E151" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F151">
+        <f t="shared" si="19"/>
+        <v>54</v>
       </c>
       <c r="N151" t="s">
         <v>201</v>
       </c>
       <c r="U151">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>65</v>
       </c>
       <c r="V151" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65</v>
       </c>
       <c r="AA151">
@@ -26786,26 +27388,30 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <f t="shared" si="13"/>
-        <v>62</v>
-      </c>
-      <c r="D152">
         <f t="shared" si="15"/>
         <v>62</v>
       </c>
+      <c r="D152">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
       <c r="E152" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F152">
+        <f t="shared" si="19"/>
+        <v>62</v>
       </c>
       <c r="N152" t="s">
         <v>202</v>
       </c>
       <c r="U152">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>73</v>
       </c>
       <c r="V152" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73</v>
       </c>
       <c r="AA152">
@@ -26832,26 +27438,30 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-      <c r="D153">
         <f t="shared" si="15"/>
         <v>70</v>
       </c>
+      <c r="D153">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
       <c r="E153" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F153">
+        <f t="shared" si="19"/>
+        <v>70</v>
       </c>
       <c r="N153" t="s">
         <v>203</v>
       </c>
       <c r="U153">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>81</v>
       </c>
       <c r="V153" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81</v>
       </c>
       <c r="AA153">
@@ -26878,26 +27488,30 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <f t="shared" ref="B154:B192" si="18">B130+1</f>
+        <f t="shared" ref="B154:B192" si="21">B130+1</f>
         <v>78</v>
       </c>
       <c r="D154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>78</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="16"/>
-        <v/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F154">
+        <f t="shared" si="19"/>
+        <v>78</v>
       </c>
       <c r="N154" t="s">
         <v>204</v>
       </c>
       <c r="U154">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>89</v>
       </c>
       <c r="V154" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89</v>
       </c>
       <c r="AA154">
@@ -26924,26 +27538,30 @@
         <v>154</v>
       </c>
       <c r="B155">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="17"/>
+        <v>86</v>
+      </c>
+      <c r="E155" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F155">
+        <f t="shared" si="19"/>
         <v>86</v>
-      </c>
-      <c r="D155">
-        <f t="shared" si="15"/>
-        <v>86</v>
-      </c>
-      <c r="E155" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N155" t="s">
         <v>205</v>
       </c>
       <c r="U155">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>97</v>
       </c>
       <c r="V155" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97</v>
       </c>
       <c r="AA155">
@@ -26970,26 +27588,30 @@
         <v>155</v>
       </c>
       <c r="B156">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="E156" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F156">
+        <f t="shared" si="19"/>
         <v>94</v>
-      </c>
-      <c r="D156">
-        <f t="shared" si="15"/>
-        <v>94</v>
-      </c>
-      <c r="E156" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N156" t="s">
         <v>206</v>
       </c>
       <c r="U156">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>105</v>
       </c>
       <c r="V156" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105</v>
       </c>
       <c r="AA156">
@@ -27016,26 +27638,30 @@
         <v>156</v>
       </c>
       <c r="B157">
+        <f t="shared" si="21"/>
+        <v>102</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="17"/>
+        <v>102</v>
+      </c>
+      <c r="E157" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F157">
+        <f t="shared" si="19"/>
         <v>102</v>
-      </c>
-      <c r="D157">
-        <f t="shared" si="15"/>
-        <v>102</v>
-      </c>
-      <c r="E157" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N157" t="s">
         <v>207</v>
       </c>
       <c r="U157">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>113</v>
       </c>
       <c r="V157" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113</v>
       </c>
       <c r="AA157">
@@ -27062,26 +27688,30 @@
         <v>157</v>
       </c>
       <c r="B158">
+        <f t="shared" si="21"/>
+        <v>110</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="17"/>
+        <v>110</v>
+      </c>
+      <c r="E158" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F158">
+        <f t="shared" si="19"/>
         <v>110</v>
-      </c>
-      <c r="D158">
-        <f t="shared" si="15"/>
-        <v>110</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N158" t="s">
         <v>208</v>
       </c>
       <c r="U158">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>121</v>
       </c>
       <c r="V158" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121</v>
       </c>
       <c r="AA158">
@@ -27108,26 +27738,30 @@
         <v>158</v>
       </c>
       <c r="B159">
+        <f t="shared" si="21"/>
+        <v>118</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="17"/>
+        <v>118</v>
+      </c>
+      <c r="E159" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F159">
+        <f t="shared" si="19"/>
         <v>118</v>
-      </c>
-      <c r="D159">
-        <f t="shared" si="15"/>
-        <v>118</v>
-      </c>
-      <c r="E159" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N159" t="s">
         <v>209</v>
       </c>
       <c r="U159">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>129</v>
       </c>
       <c r="V159" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129</v>
       </c>
       <c r="AA159">
@@ -27154,26 +27788,30 @@
         <v>159</v>
       </c>
       <c r="B160">
+        <f t="shared" si="21"/>
+        <v>126</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="17"/>
+        <v>126</v>
+      </c>
+      <c r="E160" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F160">
+        <f t="shared" si="19"/>
         <v>126</v>
-      </c>
-      <c r="D160">
-        <f t="shared" si="15"/>
-        <v>126</v>
-      </c>
-      <c r="E160" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N160" t="s">
         <v>210</v>
       </c>
       <c r="U160">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>137</v>
       </c>
       <c r="V160" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137</v>
       </c>
       <c r="AA160">
@@ -27200,26 +27838,30 @@
         <v>160</v>
       </c>
       <c r="B161">
+        <f t="shared" si="21"/>
+        <v>134</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="17"/>
+        <v>134</v>
+      </c>
+      <c r="E161" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F161">
+        <f t="shared" si="19"/>
         <v>134</v>
-      </c>
-      <c r="D161">
-        <f t="shared" si="15"/>
-        <v>134</v>
-      </c>
-      <c r="E161" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N161" t="s">
         <v>211</v>
       </c>
       <c r="U161">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>145</v>
       </c>
       <c r="V161" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145</v>
       </c>
       <c r="AA161">
@@ -27246,26 +27888,30 @@
         <v>161</v>
       </c>
       <c r="B162">
+        <f t="shared" si="21"/>
+        <v>142</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="17"/>
+        <v>142</v>
+      </c>
+      <c r="E162" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F162">
+        <f t="shared" si="19"/>
         <v>142</v>
-      </c>
-      <c r="D162">
-        <f t="shared" si="15"/>
-        <v>142</v>
-      </c>
-      <c r="E162" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N162" t="s">
         <v>212</v>
       </c>
       <c r="U162">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>153</v>
       </c>
       <c r="V162" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153</v>
       </c>
       <c r="AA162">
@@ -27292,26 +27938,30 @@
         <v>162</v>
       </c>
       <c r="B163">
+        <f t="shared" si="21"/>
+        <v>150</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="17"/>
+        <v>150</v>
+      </c>
+      <c r="E163" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F163">
+        <f t="shared" si="19"/>
         <v>150</v>
-      </c>
-      <c r="D163">
-        <f t="shared" si="15"/>
-        <v>150</v>
-      </c>
-      <c r="E163" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N163" t="s">
         <v>213</v>
       </c>
       <c r="U163">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>161</v>
       </c>
       <c r="V163" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161</v>
       </c>
       <c r="AA163">
@@ -27338,26 +27988,30 @@
         <v>163</v>
       </c>
       <c r="B164">
+        <f t="shared" si="21"/>
+        <v>158</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="17"/>
+        <v>158</v>
+      </c>
+      <c r="E164" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F164">
+        <f t="shared" si="19"/>
         <v>158</v>
-      </c>
-      <c r="D164">
-        <f t="shared" si="15"/>
-        <v>158</v>
-      </c>
-      <c r="E164" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N164" t="s">
         <v>214</v>
       </c>
       <c r="U164">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>169</v>
       </c>
       <c r="V164" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169</v>
       </c>
       <c r="AA164">
@@ -27384,26 +28038,30 @@
         <v>164</v>
       </c>
       <c r="B165">
+        <f t="shared" si="21"/>
+        <v>166</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="17"/>
+        <v>166</v>
+      </c>
+      <c r="E165" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F165">
+        <f t="shared" si="19"/>
         <v>166</v>
-      </c>
-      <c r="D165">
-        <f t="shared" si="15"/>
-        <v>166</v>
-      </c>
-      <c r="E165" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N165" t="s">
         <v>215</v>
       </c>
       <c r="U165">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>177</v>
       </c>
       <c r="V165" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177</v>
       </c>
       <c r="AA165">
@@ -27430,26 +28088,30 @@
         <v>165</v>
       </c>
       <c r="B166">
+        <f t="shared" si="21"/>
+        <v>174</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="17"/>
+        <v>174</v>
+      </c>
+      <c r="E166" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F166">
+        <f t="shared" si="19"/>
         <v>174</v>
-      </c>
-      <c r="D166">
-        <f t="shared" si="15"/>
-        <v>174</v>
-      </c>
-      <c r="E166" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N166" t="s">
         <v>216</v>
       </c>
       <c r="U166">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>185</v>
       </c>
       <c r="V166" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185</v>
       </c>
       <c r="AA166">
@@ -27476,26 +28138,30 @@
         <v>166</v>
       </c>
       <c r="B167">
+        <f t="shared" si="21"/>
+        <v>182</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="17"/>
+        <v>182</v>
+      </c>
+      <c r="E167" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F167">
+        <f t="shared" si="19"/>
         <v>182</v>
-      </c>
-      <c r="D167">
-        <f t="shared" si="15"/>
-        <v>182</v>
-      </c>
-      <c r="E167" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N167" t="s">
         <v>217</v>
       </c>
       <c r="U167">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="V167" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2</v>
       </c>
       <c r="AA167">
@@ -27522,26 +28188,30 @@
         <v>167</v>
       </c>
       <c r="B168">
+        <f t="shared" si="21"/>
+        <v>190</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="17"/>
+        <v>190</v>
+      </c>
+      <c r="E168" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F168">
+        <f t="shared" si="19"/>
         <v>190</v>
-      </c>
-      <c r="D168">
-        <f t="shared" si="15"/>
-        <v>190</v>
-      </c>
-      <c r="E168" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N168" t="s">
         <v>218</v>
       </c>
       <c r="U168">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="V168" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10</v>
       </c>
       <c r="AA168">
@@ -27568,26 +28238,30 @@
         <v>168</v>
       </c>
       <c r="B169">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="E169" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F169">
+        <f t="shared" si="19"/>
         <v>7</v>
-      </c>
-      <c r="D169">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="E169" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N169" t="s">
         <v>219</v>
       </c>
       <c r="U169">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="V169" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18</v>
       </c>
       <c r="AA169">
@@ -27614,26 +28288,30 @@
         <v>169</v>
       </c>
       <c r="B170">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="E170" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F170">
+        <f t="shared" si="19"/>
         <v>15</v>
-      </c>
-      <c r="D170">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="E170" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N170" t="s">
         <v>220</v>
       </c>
       <c r="U170">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
       <c r="V170" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26</v>
       </c>
       <c r="AA170">
@@ -27660,26 +28338,30 @@
         <v>170</v>
       </c>
       <c r="B171">
+        <f t="shared" si="21"/>
+        <v>23</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="E171" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F171">
+        <f t="shared" si="19"/>
         <v>23</v>
-      </c>
-      <c r="D171">
-        <f t="shared" si="15"/>
-        <v>23</v>
-      </c>
-      <c r="E171" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N171" t="s">
         <v>221</v>
       </c>
       <c r="U171">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
       <c r="V171" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34</v>
       </c>
       <c r="AA171">
@@ -27706,26 +28388,30 @@
         <v>171</v>
       </c>
       <c r="B172">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="E172" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F172">
+        <f t="shared" si="19"/>
         <v>31</v>
-      </c>
-      <c r="D172">
-        <f t="shared" si="15"/>
-        <v>31</v>
-      </c>
-      <c r="E172" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N172" t="s">
         <v>222</v>
       </c>
       <c r="U172">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
       <c r="V172" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42</v>
       </c>
       <c r="AA172">
@@ -27752,26 +28438,30 @@
         <v>172</v>
       </c>
       <c r="B173">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="E173" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F173">
+        <f t="shared" si="19"/>
         <v>39</v>
-      </c>
-      <c r="D173">
-        <f t="shared" si="15"/>
-        <v>39</v>
-      </c>
-      <c r="E173" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N173" t="s">
         <v>223</v>
       </c>
       <c r="U173">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="V173" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50</v>
       </c>
       <c r="AA173">
@@ -27798,26 +28488,30 @@
         <v>173</v>
       </c>
       <c r="B174">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="E174" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F174">
+        <f t="shared" si="19"/>
         <v>47</v>
-      </c>
-      <c r="D174">
-        <f t="shared" si="15"/>
-        <v>47</v>
-      </c>
-      <c r="E174" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N174" t="s">
         <v>224</v>
       </c>
       <c r="U174">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>58</v>
       </c>
       <c r="V174" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58</v>
       </c>
       <c r="AA174">
@@ -27844,26 +28538,30 @@
         <v>174</v>
       </c>
       <c r="B175">
+        <f t="shared" si="21"/>
+        <v>55</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="E175" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F175">
+        <f t="shared" si="19"/>
         <v>55</v>
-      </c>
-      <c r="D175">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="E175" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N175" t="s">
         <v>225</v>
       </c>
       <c r="U175">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>66</v>
       </c>
       <c r="V175" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66</v>
       </c>
       <c r="AA175">
@@ -27890,26 +28588,30 @@
         <v>175</v>
       </c>
       <c r="B176">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="E176" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F176">
+        <f t="shared" si="19"/>
         <v>63</v>
-      </c>
-      <c r="D176">
-        <f t="shared" si="15"/>
-        <v>63</v>
-      </c>
-      <c r="E176" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N176" t="s">
         <v>226</v>
       </c>
       <c r="U176">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>74</v>
       </c>
       <c r="V176" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74</v>
       </c>
       <c r="AA176">
@@ -27936,26 +28638,30 @@
         <v>176</v>
       </c>
       <c r="B177">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="E177" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F177">
+        <f t="shared" si="19"/>
         <v>71</v>
-      </c>
-      <c r="D177">
-        <f t="shared" si="15"/>
-        <v>71</v>
-      </c>
-      <c r="E177" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N177" t="s">
         <v>227</v>
       </c>
       <c r="U177">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>82</v>
       </c>
       <c r="V177" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82</v>
       </c>
       <c r="AA177">
@@ -27982,26 +28688,30 @@
         <v>177</v>
       </c>
       <c r="B178">
+        <f t="shared" si="21"/>
+        <v>79</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+      <c r="E178" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F178">
+        <f t="shared" si="19"/>
         <v>79</v>
-      </c>
-      <c r="D178">
-        <f t="shared" si="15"/>
-        <v>79</v>
-      </c>
-      <c r="E178" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N178" t="s">
         <v>228</v>
       </c>
       <c r="U178">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>90</v>
       </c>
       <c r="V178" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90</v>
       </c>
       <c r="AA178">
@@ -28028,26 +28738,30 @@
         <v>178</v>
       </c>
       <c r="B179">
+        <f t="shared" si="21"/>
+        <v>87</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="17"/>
+        <v>87</v>
+      </c>
+      <c r="E179" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F179">
+        <f t="shared" si="19"/>
         <v>87</v>
-      </c>
-      <c r="D179">
-        <f t="shared" si="15"/>
-        <v>87</v>
-      </c>
-      <c r="E179" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N179" t="s">
         <v>229</v>
       </c>
       <c r="U179">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="V179" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98</v>
       </c>
       <c r="AA179">
@@ -28074,26 +28788,30 @@
         <v>179</v>
       </c>
       <c r="B180">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="17"/>
+        <v>95</v>
+      </c>
+      <c r="E180" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F180">
+        <f t="shared" si="19"/>
         <v>95</v>
-      </c>
-      <c r="D180">
-        <f t="shared" si="15"/>
-        <v>95</v>
-      </c>
-      <c r="E180" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N180" t="s">
         <v>230</v>
       </c>
       <c r="U180">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>106</v>
       </c>
       <c r="V180" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106</v>
       </c>
       <c r="AA180">
@@ -28120,26 +28838,30 @@
         <v>180</v>
       </c>
       <c r="B181">
+        <f t="shared" si="21"/>
+        <v>103</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="17"/>
+        <v>103</v>
+      </c>
+      <c r="E181" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F181">
+        <f t="shared" si="19"/>
         <v>103</v>
-      </c>
-      <c r="D181">
-        <f t="shared" si="15"/>
-        <v>103</v>
-      </c>
-      <c r="E181" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N181" t="s">
         <v>231</v>
       </c>
       <c r="U181">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>114</v>
       </c>
       <c r="V181" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114</v>
       </c>
       <c r="AA181">
@@ -28166,26 +28888,30 @@
         <v>181</v>
       </c>
       <c r="B182">
+        <f t="shared" si="21"/>
+        <v>111</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="17"/>
+        <v>111</v>
+      </c>
+      <c r="E182" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F182">
+        <f t="shared" si="19"/>
         <v>111</v>
-      </c>
-      <c r="D182">
-        <f t="shared" si="15"/>
-        <v>111</v>
-      </c>
-      <c r="E182" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N182" t="s">
         <v>232</v>
       </c>
       <c r="U182">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>122</v>
       </c>
       <c r="V182" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122</v>
       </c>
       <c r="AA182">
@@ -28212,26 +28938,30 @@
         <v>182</v>
       </c>
       <c r="B183">
+        <f t="shared" si="21"/>
+        <v>119</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="17"/>
+        <v>119</v>
+      </c>
+      <c r="E183" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F183">
+        <f t="shared" si="19"/>
         <v>119</v>
-      </c>
-      <c r="D183">
-        <f t="shared" si="15"/>
-        <v>119</v>
-      </c>
-      <c r="E183" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N183" t="s">
         <v>233</v>
       </c>
       <c r="U183">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>130</v>
       </c>
       <c r="V183" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130</v>
       </c>
       <c r="AA183">
@@ -28258,26 +28988,30 @@
         <v>183</v>
       </c>
       <c r="B184">
+        <f t="shared" si="21"/>
+        <v>127</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="17"/>
+        <v>127</v>
+      </c>
+      <c r="E184" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F184">
+        <f t="shared" si="19"/>
         <v>127</v>
-      </c>
-      <c r="D184">
-        <f t="shared" si="15"/>
-        <v>127</v>
-      </c>
-      <c r="E184" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N184" t="s">
         <v>234</v>
       </c>
       <c r="U184">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>138</v>
       </c>
       <c r="V184" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138</v>
       </c>
       <c r="AA184">
@@ -28304,26 +29038,30 @@
         <v>184</v>
       </c>
       <c r="B185">
+        <f t="shared" si="21"/>
+        <v>135</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="17"/>
+        <v>135</v>
+      </c>
+      <c r="E185" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F185">
+        <f t="shared" si="19"/>
         <v>135</v>
-      </c>
-      <c r="D185">
-        <f t="shared" si="15"/>
-        <v>135</v>
-      </c>
-      <c r="E185" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N185" t="s">
         <v>235</v>
       </c>
       <c r="U185">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>146</v>
       </c>
       <c r="V185" t="str">
-        <f t="shared" ref="V185:V214" si="19">V184&amp;","&amp;U185</f>
+        <f t="shared" ref="V185:V214" si="22">V184&amp;","&amp;U185</f>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146</v>
       </c>
       <c r="AA185">
@@ -28350,26 +29088,30 @@
         <v>185</v>
       </c>
       <c r="B186">
+        <f t="shared" si="21"/>
+        <v>143</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="17"/>
+        <v>143</v>
+      </c>
+      <c r="E186" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F186">
+        <f t="shared" si="19"/>
         <v>143</v>
-      </c>
-      <c r="D186">
-        <f t="shared" si="15"/>
-        <v>143</v>
-      </c>
-      <c r="E186" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N186" t="s">
         <v>236</v>
       </c>
       <c r="U186">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>154</v>
       </c>
       <c r="V186" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154</v>
       </c>
       <c r="AA186">
@@ -28396,26 +29138,30 @@
         <v>186</v>
       </c>
       <c r="B187">
+        <f t="shared" si="21"/>
+        <v>151</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="17"/>
+        <v>151</v>
+      </c>
+      <c r="E187" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F187">
+        <f t="shared" si="19"/>
         <v>151</v>
-      </c>
-      <c r="D187">
-        <f t="shared" si="15"/>
-        <v>151</v>
-      </c>
-      <c r="E187" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N187" t="s">
         <v>237</v>
       </c>
       <c r="U187">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>162</v>
       </c>
       <c r="V187" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162</v>
       </c>
       <c r="AA187">
@@ -28442,26 +29188,30 @@
         <v>187</v>
       </c>
       <c r="B188">
+        <f t="shared" si="21"/>
+        <v>159</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="17"/>
+        <v>159</v>
+      </c>
+      <c r="E188" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F188">
+        <f t="shared" si="19"/>
         <v>159</v>
-      </c>
-      <c r="D188">
-        <f t="shared" si="15"/>
-        <v>159</v>
-      </c>
-      <c r="E188" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N188" t="s">
         <v>238</v>
       </c>
       <c r="U188">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>170</v>
       </c>
       <c r="V188" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170</v>
       </c>
       <c r="AA188">
@@ -28488,26 +29238,30 @@
         <v>188</v>
       </c>
       <c r="B189">
+        <f t="shared" si="21"/>
+        <v>167</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="17"/>
+        <v>167</v>
+      </c>
+      <c r="E189" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F189">
+        <f t="shared" si="19"/>
         <v>167</v>
-      </c>
-      <c r="D189">
-        <f t="shared" si="15"/>
-        <v>167</v>
-      </c>
-      <c r="E189" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N189" t="s">
         <v>239</v>
       </c>
       <c r="U189">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>178</v>
       </c>
       <c r="V189" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178</v>
       </c>
       <c r="AA189">
@@ -28534,26 +29288,30 @@
         <v>189</v>
       </c>
       <c r="B190">
+        <f t="shared" si="21"/>
+        <v>175</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="17"/>
+        <v>175</v>
+      </c>
+      <c r="E190" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F190">
+        <f t="shared" si="19"/>
         <v>175</v>
-      </c>
-      <c r="D190">
-        <f t="shared" si="15"/>
-        <v>175</v>
-      </c>
-      <c r="E190" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N190" t="s">
         <v>240</v>
       </c>
       <c r="U190">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>186</v>
       </c>
       <c r="V190" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186</v>
       </c>
       <c r="AA190">
@@ -28580,26 +29338,30 @@
         <v>190</v>
       </c>
       <c r="B191">
+        <f t="shared" si="21"/>
+        <v>183</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="17"/>
+        <v>183</v>
+      </c>
+      <c r="E191" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F191">
+        <f t="shared" si="19"/>
         <v>183</v>
-      </c>
-      <c r="D191">
-        <f t="shared" si="15"/>
-        <v>183</v>
-      </c>
-      <c r="E191" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N191" t="s">
         <v>241</v>
       </c>
       <c r="U191">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="V191" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3</v>
       </c>
       <c r="AA191">
@@ -28626,26 +29388,30 @@
         <v>191</v>
       </c>
       <c r="B192">
+        <f t="shared" si="21"/>
+        <v>191</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="17"/>
+        <v>191</v>
+      </c>
+      <c r="E192" t="str">
         <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F192">
+        <f t="shared" si="19"/>
         <v>191</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="15"/>
-        <v>191</v>
-      </c>
-      <c r="E192" t="str">
-        <f t="shared" si="16"/>
-        <v/>
       </c>
       <c r="N192" t="s">
         <v>242</v>
       </c>
       <c r="U192">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="V192" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11</v>
       </c>
       <c r="AA192">
@@ -28672,11 +29438,11 @@
         <v>243</v>
       </c>
       <c r="U193">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="V193" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19</v>
       </c>
       <c r="AA193">
@@ -28703,11 +29469,11 @@
         <v>244</v>
       </c>
       <c r="U194">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="V194" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27</v>
       </c>
       <c r="AA194">
@@ -28731,11 +29497,11 @@
     </row>
     <row r="195" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U195">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="V195" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35</v>
       </c>
       <c r="AA195">
@@ -28759,11 +29525,11 @@
     </row>
     <row r="196" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U196">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
       <c r="V196" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43</v>
       </c>
       <c r="AA196">
@@ -28787,11 +29553,11 @@
     </row>
     <row r="197" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U197">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>51</v>
       </c>
       <c r="V197" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51</v>
       </c>
       <c r="AA197">
@@ -28815,11 +29581,11 @@
     </row>
     <row r="198" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U198">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>59</v>
       </c>
       <c r="V198" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59</v>
       </c>
       <c r="AA198">
@@ -28843,11 +29609,11 @@
     </row>
     <row r="199" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U199">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>67</v>
       </c>
       <c r="V199" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67</v>
       </c>
       <c r="AA199">
@@ -28871,11 +29637,11 @@
     </row>
     <row r="200" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U200">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="V200" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75</v>
       </c>
       <c r="AA200">
@@ -28899,11 +29665,11 @@
     </row>
     <row r="201" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U201">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>83</v>
       </c>
       <c r="V201" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83</v>
       </c>
       <c r="AA201">
@@ -28927,11 +29693,11 @@
     </row>
     <row r="202" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U202">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>91</v>
       </c>
       <c r="V202" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91</v>
       </c>
       <c r="AA202">
@@ -28955,11 +29721,11 @@
     </row>
     <row r="203" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U203">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>99</v>
       </c>
       <c r="V203" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99</v>
       </c>
       <c r="AA203">
@@ -28983,11 +29749,11 @@
     </row>
     <row r="204" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U204">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>107</v>
       </c>
       <c r="V204" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107</v>
       </c>
       <c r="AA204">
@@ -29011,11 +29777,11 @@
     </row>
     <row r="205" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U205">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>115</v>
       </c>
       <c r="V205" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115</v>
       </c>
       <c r="AA205">
@@ -29039,11 +29805,11 @@
     </row>
     <row r="206" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U206">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>123</v>
       </c>
       <c r="V206" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123</v>
       </c>
       <c r="AA206">
@@ -29067,11 +29833,11 @@
     </row>
     <row r="207" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U207">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>131</v>
       </c>
       <c r="V207" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131</v>
       </c>
       <c r="AA207">
@@ -29095,11 +29861,11 @@
     </row>
     <row r="208" spans="14:48" x14ac:dyDescent="0.45">
       <c r="U208">
-        <f t="shared" ref="U208:U214" si="20">U184+1</f>
+        <f t="shared" ref="U208:U214" si="23">U184+1</f>
         <v>139</v>
       </c>
       <c r="V208" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139</v>
       </c>
       <c r="AA208">
@@ -29123,11 +29889,11 @@
     </row>
     <row r="209" spans="21:48" x14ac:dyDescent="0.45">
       <c r="U209">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>147</v>
       </c>
       <c r="V209" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139,147</v>
       </c>
       <c r="AA209">
@@ -29151,11 +29917,11 @@
     </row>
     <row r="210" spans="21:48" x14ac:dyDescent="0.45">
       <c r="U210">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>155</v>
       </c>
       <c r="V210" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139,147,155</v>
       </c>
       <c r="AA210">
@@ -29179,11 +29945,11 @@
     </row>
     <row r="211" spans="21:48" x14ac:dyDescent="0.45">
       <c r="U211">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>163</v>
       </c>
       <c r="V211" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139,147,155,163</v>
       </c>
       <c r="AA211">
@@ -29207,11 +29973,11 @@
     </row>
     <row r="212" spans="21:48" x14ac:dyDescent="0.45">
       <c r="U212">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>171</v>
       </c>
       <c r="V212" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139,147,155,163,171</v>
       </c>
       <c r="AA212">
@@ -29235,11 +30001,11 @@
     </row>
     <row r="213" spans="21:48" x14ac:dyDescent="0.45">
       <c r="U213">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>179</v>
       </c>
       <c r="V213" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139,147,155,163,171,179</v>
       </c>
       <c r="AA213">
@@ -29263,11 +30029,11 @@
     </row>
     <row r="214" spans="21:48" x14ac:dyDescent="0.45">
       <c r="U214">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>187</v>
       </c>
       <c r="V214" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0,8,16,24,32,40,48,56,64,72,80,88,96,104,112,120,128,136,144,152,160,168,176,184,1,9,17,25,33,41,49,57,65,73,81,89,97,105,113,121,129,137,145,153,161,169,177,185,2,10,18,26,34,42,50,58,66,74,82,90,98,106,114,122,130,138,146,154,162,170,178,186,3,11,19,27,35,43,51,59,67,75,83,91,99,107,115,123,131,139,147,155,163,171,179,187</v>
       </c>
       <c r="AA214">
